--- a/forms/accounting/J_PURC_IMP.xlsx
+++ b/forms/accounting/J_PURC_IMP.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>CNTBTCH</t>
   </si>
@@ -80,40 +80,34 @@
     <t>DATEDUE</t>
   </si>
   <si>
-    <t>D031US</t>
-  </si>
-  <si>
-    <t>FID201206</t>
-  </si>
-  <si>
-    <t>DOWA ELECTRONICS MATERIALS CO., LTD</t>
+    <t>I038US</t>
+  </si>
+  <si>
+    <t>FDKI-226</t>
+  </si>
+  <si>
+    <t>ISOGAI FASTENER INDUSTRIES CO., LTD</t>
   </si>
   <si>
     <t>N003US</t>
   </si>
   <si>
-    <t xml:space="preserve">12/23/2020 </t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
-    <t xml:space="preserve">03/23/2021 </t>
-  </si>
-  <si>
-    <t>H036US</t>
-  </si>
-  <si>
-    <t>IF20077</t>
-  </si>
-  <si>
-    <t>HEITKAMP UND THUMANN (S) PTE LTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/21/2021 </t>
-  </si>
-  <si>
-    <t>IF20078</t>
+    <t xml:space="preserve">04/27/2021 </t>
+  </si>
+  <si>
+    <t>J018US</t>
+  </si>
+  <si>
+    <t>JHIV201117</t>
+  </si>
+  <si>
+    <t>JIANGSU JINGHONG NEW MATERIAL TECHNOLOGY CO., LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/29/2021 </t>
   </si>
   <si>
     <t>CNTLINE</t>
@@ -508,13 +502,34 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="58.842773" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
@@ -577,7 +592,7 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="2">
-        <v>8372</v>
+        <v>8388</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -601,8 +616,9 @@
       <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>23</v>
+      <c r="J2" s="2" t="str">
+        <f>DATE(2020,12,28)</f>
+        <v>0</v>
       </c>
       <c r="K2" s="2">
         <v>2020</v>
@@ -611,39 +627,39 @@
         <v>9</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>29565</v>
+      </c>
+      <c r="P2" s="2">
+        <v>29565</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>29565</v>
+      </c>
+      <c r="R2" s="2">
+        <v>29565</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>69240</v>
-      </c>
-      <c r="P2" s="2">
-        <v>69240</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>69240</v>
-      </c>
-      <c r="R2" s="2">
-        <v>69240</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2">
-        <v>8372</v>
+        <v>8388</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -652,14 +668,15 @@
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
+      <c r="J3" s="2" t="str">
+        <f>DATE(2020,12,29)</f>
+        <v>0</v>
       </c>
       <c r="K3" s="2">
         <v>2020</v>
@@ -668,82 +685,25 @@
         <v>9</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N3" s="2">
         <v>1</v>
       </c>
       <c r="O3" s="2">
-        <v>94176</v>
+        <v>50332.48</v>
       </c>
       <c r="P3" s="2">
-        <v>94176</v>
+        <v>50332.48</v>
       </c>
       <c r="Q3" s="2">
-        <v>94176</v>
+        <v>50332.48</v>
       </c>
       <c r="R3" s="2">
-        <v>94176</v>
+        <v>50332.48</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="2">
-        <v>8372</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2">
-        <v>2020</v>
-      </c>
-      <c r="L4" s="2">
-        <v>9</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2">
-        <v>141264</v>
-      </c>
-      <c r="P4" s="2">
-        <v>141264</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>141264</v>
-      </c>
-      <c r="R4" s="2">
-        <v>141264</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -767,13 +727,21 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -783,21 +751,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>8372</v>
+        <v>8388</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -806,18 +774,18 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2">
-        <v>69240</v>
+        <v>29565</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>8372</v>
+        <v>8388</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -826,33 +794,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2">
-        <v>94176</v>
+        <v>50332.48</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>8372</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="2">
-        <v>141264</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -876,13 +824,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -892,18 +847,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>8372</v>
+        <v>8388</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -912,15 +867,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
-        <v>69240</v>
+        <v>29565</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>8372</v>
+        <v>8388</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -929,27 +884,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2">
-        <v>94176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>8372</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2">
-        <v>141264</v>
+        <v>50332.48</v>
       </c>
     </row>
   </sheetData>
